--- a/Data/Processed/Angiosperms/missing_powo_ipni/Velloziaceae.xlsx
+++ b/Data/Processed/Angiosperms/missing_powo_ipni/Velloziaceae.xlsx
@@ -487,7 +487,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -1730,7 +1730,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1808,7 +1808,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1886,7 +1886,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1964,7 +1964,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -2042,7 +2042,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -2052,7 +2052,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bot. Mag. 95: t. 5803. 1869 </t>
+          <t>Bot. Mag. 95: t. 5803. 1869</t>
         </is>
       </c>
       <c r="J28" t="b">
